--- a/MSFT.xlsx
+++ b/MSFT.xlsx
@@ -542,16 +542,16 @@
         <v>45560</v>
       </c>
       <c r="B3" t="n">
-        <v>426.6270665374025</v>
+        <v>426.6270361808483</v>
       </c>
       <c r="C3" t="n">
-        <v>429.8925592630177</v>
+        <v>429.8925286741081</v>
       </c>
       <c r="D3" t="n">
-        <v>425.3764761475162</v>
+        <v>425.3764458799475</v>
       </c>
       <c r="E3" t="n">
-        <v>428.8900756835938</v>
+        <v>428.8900451660156</v>
       </c>
       <c r="F3" t="n">
         <v>13396400</v>
@@ -563,10 +563,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.006850356824791293</v>
+        <v>0.006850285182577576</v>
       </c>
       <c r="J3" t="n">
-        <v>0.006850356824791293</v>
+        <v>0.006850285182577576</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
@@ -577,16 +577,16 @@
         <v>45561</v>
       </c>
       <c r="B4" t="n">
-        <v>431.847870478453</v>
+        <v>431.8478396934189</v>
       </c>
       <c r="C4" t="n">
-        <v>432.0562971567435</v>
+        <v>432.0562663568514</v>
       </c>
       <c r="D4" t="n">
-        <v>425.9322906223111</v>
+        <v>425.9322602589796</v>
       </c>
       <c r="E4" t="n">
-        <v>428.0960388183594</v>
+        <v>428.0960083007812</v>
       </c>
       <c r="F4" t="n">
         <v>14492000</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.001851376168984009</v>
+        <v>-0.001851376300718299</v>
       </c>
       <c r="J4" t="n">
-        <v>0.00498629806843276</v>
+        <v>0.004986226426219043</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.007627968104309102</v>
+        <v>-0.007627897361320524</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.002679705358500928</v>
+        <v>-0.002679705358501039</v>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
@@ -671,7 +671,7 @@
         <v>0.005326902881699569</v>
       </c>
       <c r="J6" t="n">
-        <v>0.00263292299300244</v>
+        <v>0.002632922993002218</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
@@ -706,7 +706,7 @@
         <v>-0.02233318723355671</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.01975906580272857</v>
+        <v>-0.01975906580272879</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
@@ -741,7 +741,7 @@
         <v>-0.008462300864414019</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.0280541595075201</v>
+        <v>-0.02805415950752033</v>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
@@ -752,16 +752,16 @@
         <v>45568</v>
       </c>
       <c r="B9" t="n">
-        <v>414.5180314477273</v>
+        <v>414.5180008502912</v>
       </c>
       <c r="C9" t="n">
-        <v>416.4237075893507</v>
+        <v>416.4236768512481</v>
       </c>
       <c r="D9" t="n">
-        <v>411.2029231201695</v>
+        <v>411.2028927674364</v>
       </c>
       <c r="E9" t="n">
-        <v>413.4361572265625</v>
+        <v>413.4361267089844</v>
       </c>
       <c r="F9" t="n">
         <v>13686400</v>
@@ -773,10 +773,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.001414349172353613</v>
+        <v>-0.001414422882441868</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.02942883030259313</v>
+        <v>-0.02942890194480707</v>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
@@ -787,16 +787,16 @@
         <v>45569</v>
       </c>
       <c r="B10" t="n">
-        <v>415.123434528983</v>
+        <v>415.1234652064613</v>
       </c>
       <c r="C10" t="n">
-        <v>416.622192310914</v>
+        <v>416.6222230991501</v>
       </c>
       <c r="D10" t="n">
-        <v>411.8778121544539</v>
+        <v>411.8778425920818</v>
       </c>
       <c r="E10" t="n">
-        <v>412.9596862792969</v>
+        <v>412.959716796875</v>
       </c>
       <c r="F10" t="n">
         <v>19169700</v>
@@ -808,10 +808,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.001152465595805396</v>
+        <v>-0.001152318051887868</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.03054738018394998</v>
+        <v>-0.03054730854173671</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
@@ -843,10 +843,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.01567079122808146</v>
+        <v>-0.01567086396966444</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.04573946979460397</v>
+        <v>-0.04573946979460419</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
@@ -857,16 +857,16 @@
         <v>45573</v>
       </c>
       <c r="B12" t="n">
-        <v>407.838143880994</v>
+        <v>407.8381136437851</v>
       </c>
       <c r="C12" t="n">
-        <v>412.5626841012525</v>
+        <v>412.5626535137651</v>
       </c>
       <c r="D12" t="n">
-        <v>405.1285060524599</v>
+        <v>405.1284760161441</v>
       </c>
       <c r="E12" t="n">
-        <v>411.6197509765625</v>
+        <v>411.6197204589844</v>
       </c>
       <c r="F12" t="n">
         <v>19229300</v>
@@ -878,10 +878,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01262390568993177</v>
+        <v>0.0126238306137747</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.03369297485766676</v>
+        <v>-0.03369304649988047</v>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
@@ -913,10 +913,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.006631101109760396</v>
+        <v>0.006631175741615314</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.0272852952708762</v>
+        <v>-0.02728529527087631</v>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
@@ -927,16 +927,16 @@
         <v>45575</v>
       </c>
       <c r="B14" t="n">
-        <v>412.1358930084465</v>
+        <v>412.1358625356339</v>
       </c>
       <c r="C14" t="n">
-        <v>414.2400908209317</v>
+        <v>414.2400601925373</v>
       </c>
       <c r="D14" t="n">
-        <v>410.0713753239967</v>
+        <v>410.0713450038319</v>
       </c>
       <c r="E14" t="n">
-        <v>412.7413330078125</v>
+        <v>412.7413024902344</v>
       </c>
       <c r="F14" t="n">
         <v>13848400</v>
@@ -948,10 +948,10 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.003880567378310218</v>
+        <v>-0.003880641030135634</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.03105998022245071</v>
+        <v>-0.03106005186466443</v>
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
@@ -962,16 +962,16 @@
         <v>45576</v>
       </c>
       <c r="B15" t="n">
-        <v>413.039091483719</v>
+        <v>413.0391219881031</v>
       </c>
       <c r="C15" t="n">
-        <v>414.0217046730069</v>
+        <v>414.0217352499604</v>
       </c>
       <c r="D15" t="n">
-        <v>410.1706121672714</v>
+        <v>410.1706424598083</v>
       </c>
       <c r="E15" t="n">
-        <v>413.2177429199219</v>
+        <v>413.2177734375</v>
       </c>
       <c r="F15" t="n">
         <v>14144900</v>
@@ -983,10 +983,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.00115425782205425</v>
+        <v>0.001154405784909107</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.02994157362552108</v>
+        <v>-0.02994150198330747</v>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.006773695656653311</v>
+        <v>0.00677362130289394</v>
       </c>
       <c r="J16" t="n">
         <v>-0.0233706930760883</v>
@@ -1202,7 +1202,7 @@
         <v>16274460</v>
       </c>
       <c r="L21" t="n">
-        <v>417.0122650146484</v>
+        <v>417.0122604370117</v>
       </c>
       <c r="M21" t="inlineStr"/>
     </row>
@@ -1241,7 +1241,7 @@
         <v>16697780</v>
       </c>
       <c r="L22" t="n">
-        <v>416.9298843383789</v>
+        <v>416.9298797607422</v>
       </c>
       <c r="M22" t="inlineStr"/>
     </row>
@@ -1280,7 +1280,7 @@
         <v>17010680</v>
       </c>
       <c r="L23" t="n">
-        <v>416.5571838378906</v>
+        <v>416.5571807861328</v>
       </c>
       <c r="M23" t="inlineStr"/>
     </row>
@@ -1289,16 +1289,16 @@
         <v>45589</v>
       </c>
       <c r="B24" t="n">
-        <v>422.1606293643247</v>
+        <v>422.1605988036373</v>
       </c>
       <c r="C24" t="n">
-        <v>422.8058101049405</v>
+        <v>422.8057794975477</v>
       </c>
       <c r="D24" t="n">
-        <v>419.2524696034551</v>
+        <v>419.2524392532927</v>
       </c>
       <c r="E24" t="n">
-        <v>421.5651245117188</v>
+        <v>421.5650939941406</v>
       </c>
       <c r="F24" t="n">
         <v>13581600</v>
@@ -1310,16 +1310,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0003062358644703167</v>
+        <v>0.0003061634511658529</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.01034549385879402</v>
+        <v>-0.01034556550100774</v>
       </c>
       <c r="K24" t="n">
         <v>16965160</v>
       </c>
       <c r="L24" t="n">
-        <v>416.2306381225586</v>
+        <v>416.2306350708008</v>
       </c>
       <c r="M24" t="inlineStr"/>
     </row>
@@ -1349,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.008052066021294824</v>
+        <v>0.008052138995334079</v>
       </c>
       <c r="J25" t="n">
         <v>-0.002376730437073094</v>
@@ -1358,7 +1358,7 @@
         <v>17065310</v>
       </c>
       <c r="L25" t="n">
-        <v>416.2370910644531</v>
+        <v>416.2370880126953</v>
       </c>
       <c r="M25" t="inlineStr"/>
     </row>
@@ -1397,7 +1397,7 @@
         <v>16969065</v>
       </c>
       <c r="L26" t="n">
-        <v>416.0529739379883</v>
+        <v>416.0529708862305</v>
       </c>
       <c r="M26" t="inlineStr"/>
     </row>
@@ -1436,7 +1436,7 @@
         <v>16896625</v>
       </c>
       <c r="L27" t="n">
-        <v>416.6117782592773</v>
+        <v>416.6117752075195</v>
       </c>
       <c r="M27" t="inlineStr"/>
     </row>
@@ -1475,7 +1475,7 @@
         <v>17554965</v>
       </c>
       <c r="L28" t="n">
-        <v>417.3760391235352</v>
+        <v>417.3760360717773</v>
       </c>
       <c r="M28" t="inlineStr"/>
     </row>
@@ -1514,7 +1514,7 @@
         <v>19569195</v>
       </c>
       <c r="L29" t="n">
-        <v>416.8703338623047</v>
+        <v>416.8703323364258</v>
       </c>
       <c r="M29" t="inlineStr"/>
     </row>
@@ -1553,7 +1553,7 @@
         <v>19822230</v>
       </c>
       <c r="L30" t="n">
-        <v>416.5879547119141</v>
+        <v>416.5879516601562</v>
       </c>
       <c r="M30" t="inlineStr"/>
     </row>
@@ -1592,7 +1592,7 @@
         <v>19759855</v>
       </c>
       <c r="L31" t="n">
-        <v>416.5343566894531</v>
+        <v>416.5343536376953</v>
       </c>
       <c r="M31" t="inlineStr"/>
     </row>
@@ -1631,7 +1631,7 @@
         <v>19679690</v>
       </c>
       <c r="L32" t="n">
-        <v>416.3730667114258</v>
+        <v>416.3730651855469</v>
       </c>
       <c r="M32" t="inlineStr"/>
     </row>
@@ -1640,16 +1640,16 @@
         <v>45602</v>
       </c>
       <c r="B33" t="n">
-        <v>409.3467957487715</v>
+        <v>409.346825702744</v>
       </c>
       <c r="C33" t="n">
-        <v>417.3169576302284</v>
+        <v>417.3169881674181</v>
       </c>
       <c r="D33" t="n">
-        <v>407.4609296888859</v>
+        <v>407.4609595048601</v>
       </c>
       <c r="E33" t="n">
-        <v>417.0489501953125</v>
+        <v>417.0489807128906</v>
       </c>
       <c r="F33" t="n">
         <v>26681800</v>
@@ -1661,10 +1661,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.0211927692594065</v>
+        <v>0.02119284398523935</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.02094753848458575</v>
+        <v>-0.02094746684237203</v>
       </c>
       <c r="K33" t="n">
         <v>20265065</v>
@@ -1700,16 +1700,16 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0.01249471310257833</v>
+        <v>0.01249463901323167</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.008714558865577593</v>
+        <v>-0.008714558865577482</v>
       </c>
       <c r="K34" t="n">
         <v>20567735</v>
       </c>
       <c r="L34" t="n">
-        <v>416.9839782714844</v>
+        <v>416.9839797973633</v>
       </c>
       <c r="M34" t="inlineStr"/>
     </row>
@@ -1742,7 +1742,7 @@
         <v>-0.006793137423607543</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.01544849709322516</v>
+        <v>-0.01544849709322504</v>
       </c>
       <c r="K35" t="n">
         <v>20705060</v>
@@ -1781,7 +1781,7 @@
         <v>-0.01072081103620948</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.02600368771130468</v>
+        <v>-0.02600368771130457</v>
       </c>
       <c r="K36" t="n">
         <v>21097570</v>
@@ -1820,7 +1820,7 @@
         <v>0.01200923702592482</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.01430673513465308</v>
+        <v>-0.01430673513465297</v>
       </c>
       <c r="K37" t="n">
         <v>21122620</v>
@@ -1859,7 +1859,7 @@
         <v>0.005129754187831015</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.009250370981293221</v>
+        <v>-0.00925037098129311</v>
       </c>
       <c r="K38" t="n">
         <v>21422285</v>
@@ -1898,7 +1898,7 @@
         <v>0.003974580617207124</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.005312556709290317</v>
+        <v>-0.005312556709290206</v>
       </c>
       <c r="K39" t="n">
         <v>22193630</v>
@@ -1937,7 +1937,7 @@
         <v>-0.02785265761251887</v>
       </c>
       <c r="J40" t="n">
-        <v>-0.03301724549873819</v>
+        <v>-0.03301724549873808</v>
       </c>
       <c r="K40" t="n">
         <v>22748745</v>
@@ -1976,7 +1976,7 @@
         <v>0.001831391377353997</v>
       </c>
       <c r="J41" t="n">
-        <v>-0.03124632162009455</v>
+        <v>-0.03124632162009444</v>
       </c>
       <c r="K41" t="n">
         <v>23274790</v>
@@ -1991,16 +1991,16 @@
         <v>45615</v>
       </c>
       <c r="B42" t="n">
-        <v>410.0316389788728</v>
+        <v>410.0316691545974</v>
       </c>
       <c r="C42" t="n">
-        <v>414.825664526232</v>
+        <v>414.8256950547665</v>
       </c>
       <c r="D42" t="n">
-        <v>408.4832659585283</v>
+        <v>408.4832960203025</v>
       </c>
       <c r="E42" t="n">
-        <v>414.6767883300781</v>
+        <v>414.6768188476562</v>
       </c>
       <c r="F42" t="n">
         <v>18133500</v>
@@ -2012,16 +2012,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.004882523115665283</v>
+        <v>0.004882597068637251</v>
       </c>
       <c r="J42" t="n">
-        <v>-0.02651635939201891</v>
+        <v>-0.02651628774980519</v>
       </c>
       <c r="K42" t="n">
         <v>22907355</v>
       </c>
       <c r="L42" t="n">
-        <v>417.6157379150391</v>
+        <v>417.615739440918</v>
       </c>
       <c r="M42" t="inlineStr"/>
     </row>
@@ -2051,16 +2051,16 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>-0.005505172934404778</v>
+        <v>-0.005505246122902818</v>
       </c>
       <c r="J43" t="n">
-        <v>-0.03187555518237983</v>
+        <v>-0.03187555518237961</v>
       </c>
       <c r="K43" t="n">
         <v>22884220</v>
       </c>
       <c r="L43" t="n">
-        <v>417.1636306762695</v>
+        <v>417.1636322021484</v>
       </c>
       <c r="M43" t="inlineStr"/>
     </row>
@@ -2093,13 +2093,13 @@
         <v>-0.004316776538474176</v>
       </c>
       <c r="J44" t="n">
-        <v>-0.03605473207209187</v>
+        <v>-0.03605473207209164</v>
       </c>
       <c r="K44" t="n">
         <v>23244150</v>
       </c>
       <c r="L44" t="n">
-        <v>416.6160598754883</v>
+        <v>416.6160629272461</v>
       </c>
       <c r="M44" t="inlineStr"/>
     </row>
@@ -2132,13 +2132,13 @@
         <v>0.01000320327254056</v>
       </c>
       <c r="J45" t="n">
-        <v>-0.02641219161340547</v>
+        <v>-0.02641219161340524</v>
       </c>
       <c r="K45" t="n">
         <v>23639925</v>
       </c>
       <c r="L45" t="n">
-        <v>416.1041381835938</v>
+        <v>416.1041412353516</v>
       </c>
       <c r="M45" t="inlineStr"/>
     </row>
@@ -2171,13 +2171,13 @@
         <v>0.004292552611805611</v>
       </c>
       <c r="J46" t="n">
-        <v>-0.02223301472369354</v>
+        <v>-0.02223301472369321</v>
       </c>
       <c r="K46" t="n">
         <v>24280360</v>
       </c>
       <c r="L46" t="n">
-        <v>415.7586456298828</v>
+        <v>415.7586486816406</v>
       </c>
       <c r="M46" t="inlineStr"/>
     </row>
@@ -2210,13 +2210,13 @@
         <v>0.02196804098383653</v>
       </c>
       <c r="J47" t="n">
-        <v>-0.0007533895185013462</v>
+        <v>-0.0007533895185010131</v>
       </c>
       <c r="K47" t="n">
         <v>24571100</v>
       </c>
       <c r="L47" t="n">
-        <v>415.6046356201172</v>
+        <v>415.604638671875</v>
       </c>
       <c r="M47" t="inlineStr"/>
     </row>
@@ -2249,13 +2249,13 @@
         <v>-0.01168254200413188</v>
       </c>
       <c r="J48" t="n">
-        <v>-0.01242713001793783</v>
+        <v>-0.01242713001793749</v>
       </c>
       <c r="K48" t="n">
         <v>24000265</v>
       </c>
       <c r="L48" t="n">
-        <v>415.173208618164</v>
+        <v>415.1732116699219</v>
       </c>
       <c r="M48" t="inlineStr"/>
     </row>
@@ -2288,13 +2288,13 @@
         <v>0.001111152219221312</v>
       </c>
       <c r="J49" t="n">
-        <v>-0.01132978623181446</v>
+        <v>-0.01132978623181413</v>
       </c>
       <c r="K49" t="n">
         <v>22115310</v>
       </c>
       <c r="L49" t="n">
-        <v>416.0643981933594</v>
+        <v>416.0644012451172</v>
       </c>
       <c r="M49" t="inlineStr"/>
     </row>
@@ -2327,13 +2327,13 @@
         <v>0.01775848549580084</v>
       </c>
       <c r="J50" t="n">
-        <v>0.006227499419518168</v>
+        <v>0.006227499419518612</v>
       </c>
       <c r="K50" t="n">
         <v>21914150</v>
       </c>
       <c r="L50" t="n">
-        <v>417.1300308227539</v>
+        <v>417.1300338745117</v>
       </c>
       <c r="M50" t="inlineStr"/>
     </row>
@@ -2366,16 +2366,16 @@
         <v>0.0005104243620728255</v>
       </c>
       <c r="J51" t="n">
-        <v>0.006741102449009606</v>
+        <v>0.00674110244901005</v>
       </c>
       <c r="K51" t="n">
         <v>21845635</v>
       </c>
       <c r="L51" t="n">
-        <v>418.3013916015625</v>
+        <v>418.3013946533203</v>
       </c>
       <c r="M51" t="n">
-        <v>417.9211651611328</v>
+        <v>417.9211639404297</v>
       </c>
     </row>
     <row r="52">
@@ -2407,16 +2407,16 @@
         <v>0.0144249233846736</v>
       </c>
       <c r="J52" t="n">
-        <v>0.02126326572003845</v>
+        <v>0.02126326572003889</v>
       </c>
       <c r="K52" t="n">
         <v>22264805</v>
       </c>
       <c r="L52" t="n">
-        <v>419.6331726074219</v>
+        <v>419.6331756591797</v>
       </c>
       <c r="M52" t="n">
-        <v>418.1023162841797</v>
+        <v>418.1023150634766</v>
       </c>
     </row>
     <row r="53">
@@ -2448,16 +2448,16 @@
         <v>0.0118878581196038</v>
       </c>
       <c r="J53" t="n">
-        <v>0.03340389852568149</v>
+        <v>0.03340389852568193</v>
       </c>
       <c r="K53" t="n">
         <v>22015605</v>
       </c>
       <c r="L53" t="n">
-        <v>420.7907821655273</v>
+        <v>420.7907836914063</v>
       </c>
       <c r="M53" t="n">
-        <v>418.3285375976562</v>
+        <v>418.3285369873047</v>
       </c>
     </row>
     <row r="54">
@@ -2489,13 +2489,13 @@
         <v>0.002146346590189419</v>
       </c>
       <c r="J54" t="n">
-        <v>0.03562194145957043</v>
+        <v>0.03562194145957087</v>
       </c>
       <c r="K54" t="n">
         <v>21961565</v>
       </c>
       <c r="L54" t="n">
-        <v>421.7350875854492</v>
+        <v>421.7350891113281</v>
       </c>
       <c r="M54" t="n">
         <v>418.5895361328125</v>
@@ -2530,13 +2530,13 @@
         <v>0.005523306712039933</v>
       </c>
       <c r="J55" t="n">
-        <v>0.04134199907996994</v>
+        <v>0.04134199907997038</v>
       </c>
       <c r="K55" t="n">
         <v>22074215</v>
       </c>
       <c r="L55" t="n">
-        <v>422.944645690918</v>
+        <v>422.9446472167969</v>
       </c>
       <c r="M55" t="n">
         <v>418.9645764160156</v>
@@ -2571,13 +2571,13 @@
         <v>-0.006031105074930321</v>
       </c>
       <c r="J56" t="n">
-        <v>0.03506155606458061</v>
+        <v>0.03506155606458106</v>
       </c>
       <c r="K56" t="n">
         <v>21772525</v>
       </c>
       <c r="L56" t="n">
-        <v>424.2452499389648</v>
+        <v>424.2452514648438</v>
       </c>
       <c r="M56" t="n">
         <v>419.2408502197266</v>
@@ -2612,13 +2612,13 @@
         <v>0.01276705988635252</v>
       </c>
       <c r="J57" t="n">
-        <v>0.0482762489369184</v>
+        <v>0.04827624893691884</v>
       </c>
       <c r="K57" t="n">
         <v>21762475</v>
       </c>
       <c r="L57" t="n">
-        <v>425.5781799316406</v>
+        <v>425.5781814575195</v>
       </c>
       <c r="M57" t="n">
         <v>419.8204730224609</v>
@@ -2653,13 +2653,13 @@
         <v>0.0012695372633722</v>
       </c>
       <c r="J58" t="n">
-        <v>0.0496070746972519</v>
+        <v>0.04960707469725234</v>
       </c>
       <c r="K58" t="n">
         <v>21729105</v>
       </c>
       <c r="L58" t="n">
-        <v>426.8317611694336</v>
+        <v>426.8317626953125</v>
       </c>
       <c r="M58" t="n">
         <v>420.4821032714844</v>
@@ -2694,16 +2694,16 @@
         <v>-0.005093961856648455</v>
       </c>
       <c r="J59" t="n">
-        <v>0.04426041629427568</v>
+        <v>0.04426041629427613</v>
       </c>
       <c r="K59" t="n">
         <v>21225650</v>
       </c>
       <c r="L59" t="n">
-        <v>427.8875961303711</v>
+        <v>427.88759765625</v>
       </c>
       <c r="M59" t="n">
-        <v>421.1098944091797</v>
+        <v>421.1098950195312</v>
       </c>
     </row>
     <row r="60">
@@ -2735,13 +2735,13 @@
         <v>0.009658653041026311</v>
       </c>
       <c r="J60" t="n">
-        <v>0.05434656533973969</v>
+        <v>0.05434656533974014</v>
       </c>
       <c r="K60" t="n">
         <v>20993210</v>
       </c>
       <c r="L60" t="n">
-        <v>429.7483230590821</v>
+        <v>429.7483245849609</v>
       </c>
       <c r="M60" t="n">
         <v>421.8331433105469</v>
@@ -2776,13 +2776,13 @@
         <v>0.006355239177121996</v>
       </c>
       <c r="J61" t="n">
-        <v>0.06104718993805092</v>
+        <v>0.06104718993805136</v>
       </c>
       <c r="K61" t="n">
         <v>20893535</v>
       </c>
       <c r="L61" t="n">
-        <v>431.714045715332</v>
+        <v>431.7140472412109</v>
       </c>
       <c r="M61" t="n">
         <v>422.742905883789</v>
@@ -2817,7 +2817,7 @@
         <v>-0.03756099698569171</v>
       </c>
       <c r="J62" t="n">
-        <v>0.02119319963511113</v>
+        <v>0.02119319963511157</v>
       </c>
       <c r="K62" t="n">
         <v>21209085</v>
@@ -2826,7 +2826,7 @@
         <v>432.7301925659179</v>
       </c>
       <c r="M62" t="n">
-        <v>423.2105053710937</v>
+        <v>423.2105059814453</v>
       </c>
     </row>
     <row r="63">
@@ -2858,7 +2858,7 @@
         <v>-0.0008230631094794383</v>
       </c>
       <c r="J63" t="n">
-        <v>0.02035269318484012</v>
+        <v>0.02035269318484056</v>
       </c>
       <c r="K63" t="n">
         <v>21397685</v>
@@ -2867,7 +2867,7 @@
         <v>433.8425811767578</v>
       </c>
       <c r="M63" t="n">
-        <v>423.6163543701172</v>
+        <v>423.6163549804688</v>
       </c>
     </row>
     <row r="64">
@@ -2899,7 +2899,7 @@
         <v>-0.0009838271649059704</v>
       </c>
       <c r="J64" t="n">
-        <v>0.01934884248749991</v>
+        <v>0.01934884248750035</v>
       </c>
       <c r="K64" t="n">
         <v>23571860</v>
@@ -2908,7 +2908,7 @@
         <v>435.0225997924805</v>
       </c>
       <c r="M64" t="n">
-        <v>424.0458093261719</v>
+        <v>424.045810546875</v>
       </c>
     </row>
     <row r="65">
@@ -2940,7 +2940,7 @@
         <v>-0.00309214147243031</v>
       </c>
       <c r="J65" t="n">
-        <v>0.01619687165677042</v>
+        <v>0.01619687165677086</v>
       </c>
       <c r="K65" t="n">
         <v>23288755</v>
@@ -2949,7 +2949,7 @@
         <v>435.9301132202148</v>
       </c>
       <c r="M65" t="n">
-        <v>424.4388830566406</v>
+        <v>424.4388836669922</v>
       </c>
     </row>
     <row r="66">
@@ -2981,7 +2981,7 @@
         <v>0.009373864724391945</v>
       </c>
       <c r="J66" t="n">
-        <v>0.02572256366503134</v>
+        <v>0.02572256366503178</v>
       </c>
       <c r="K66" t="n">
         <v>22262425</v>
@@ -2990,7 +2990,7 @@
         <v>436.9514999389648</v>
       </c>
       <c r="M66" t="n">
-        <v>424.8571301269531</v>
+        <v>424.8571307373047</v>
       </c>
     </row>
     <row r="67">
@@ -3022,7 +3022,7 @@
         <v>-0.002776921587062553</v>
       </c>
       <c r="J67" t="n">
-        <v>0.02287421253565269</v>
+        <v>0.02287421253565314</v>
       </c>
       <c r="K67" t="n">
         <v>21499190</v>
@@ -3031,7 +3031,7 @@
         <v>437.4547348022461</v>
       </c>
       <c r="M67" t="n">
-        <v>425.2590521240234</v>
+        <v>425.259052734375</v>
       </c>
     </row>
     <row r="68">
@@ -3063,7 +3063,7 @@
         <v>-0.01730165606317902</v>
       </c>
       <c r="J68" t="n">
-        <v>0.00517679471446586</v>
+        <v>0.005176794714466304</v>
       </c>
       <c r="K68" t="n">
         <v>21488455</v>
@@ -3072,7 +3072,7 @@
         <v>437.8296737670898</v>
       </c>
       <c r="M68" t="n">
-        <v>425.5622113037109</v>
+        <v>425.5622119140625</v>
       </c>
     </row>
     <row r="69">
@@ -3104,7 +3104,7 @@
         <v>-0.01323943320663323</v>
       </c>
       <c r="J69" t="n">
-        <v>-0.008131176320014033</v>
+        <v>-0.008131176320013589</v>
       </c>
       <c r="K69" t="n">
         <v>21332795</v>
@@ -3113,7 +3113,7 @@
         <v>437.8977996826172</v>
       </c>
       <c r="M69" t="n">
-        <v>425.7400830078125</v>
+        <v>425.7400836181641</v>
       </c>
     </row>
     <row r="70">
@@ -3145,7 +3145,7 @@
         <v>-0.00783842024206427</v>
       </c>
       <c r="J70" t="n">
-        <v>-0.01590586098501967</v>
+        <v>-0.01590586098501923</v>
       </c>
       <c r="K70" t="n">
         <v>20984760</v>
@@ -3154,7 +3154,7 @@
         <v>437.4263900756836</v>
       </c>
       <c r="M70" t="n">
-        <v>425.8231329345703</v>
+        <v>425.8231335449219</v>
       </c>
     </row>
     <row r="71">
@@ -3186,7 +3186,7 @@
         <v>-0.006927663501339887</v>
       </c>
       <c r="J71" t="n">
-        <v>-0.02272333403375626</v>
+        <v>-0.02272333403375582</v>
       </c>
       <c r="K71" t="n">
         <v>20914485</v>
@@ -3195,7 +3195,7 @@
         <v>436.7988388061523</v>
       </c>
       <c r="M71" t="n">
-        <v>425.8357946777344</v>
+        <v>425.8357952880859</v>
       </c>
     </row>
     <row r="72">
@@ -3227,7 +3227,7 @@
         <v>0.01139573111294112</v>
       </c>
       <c r="J72" t="n">
-        <v>-0.01158655192545333</v>
+        <v>-0.01158655192545288</v>
       </c>
       <c r="K72" t="n">
         <v>20447160</v>
@@ -3236,7 +3236,7 @@
         <v>436.0991836547852</v>
       </c>
       <c r="M72" t="n">
-        <v>425.7700360107422</v>
+        <v>425.7700366210938</v>
       </c>
     </row>
     <row r="73">
@@ -3268,7 +3268,7 @@
         <v>0.01062948976347156</v>
       </c>
       <c r="J73" t="n">
-        <v>-0.001080221297067308</v>
+        <v>-0.001080221297066863</v>
       </c>
       <c r="K73" t="n">
         <v>20390950</v>
@@ -3277,7 +3277,7 @@
         <v>435.3647201538086</v>
       </c>
       <c r="M73" t="n">
-        <v>425.8515521240234</v>
+        <v>425.851552734375</v>
       </c>
     </row>
     <row r="74">
@@ -3309,7 +3309,7 @@
         <v>-0.01280827541908858</v>
       </c>
       <c r="J74" t="n">
-        <v>-0.01387466094426948</v>
+        <v>-0.01387466094426903</v>
       </c>
       <c r="K74" t="n">
         <v>20356855</v>
@@ -3318,7 +3318,7 @@
         <v>434.3105117797851</v>
       </c>
       <c r="M74" t="n">
-        <v>425.8214855957031</v>
+        <v>425.8214868164063</v>
       </c>
     </row>
     <row r="75">
@@ -3350,7 +3350,7 @@
         <v>0.005184972885125205</v>
       </c>
       <c r="J75" t="n">
-        <v>-0.008761627799930616</v>
+        <v>-0.008761627799930172</v>
       </c>
       <c r="K75" t="n">
         <v>20152365</v>
@@ -3359,7 +3359,7 @@
         <v>433.2433746337891</v>
       </c>
       <c r="M75" t="n">
-        <v>425.76708984375</v>
+        <v>425.7670910644531</v>
       </c>
     </row>
     <row r="76">
@@ -3391,7 +3391,7 @@
         <v>-0.01321354494240157</v>
       </c>
       <c r="J76" t="n">
-        <v>-0.02185940057962921</v>
+        <v>-0.02185940057962876</v>
       </c>
       <c r="K76" t="n">
         <v>20238945</v>
@@ -3400,7 +3400,7 @@
         <v>432.0310379028321</v>
       </c>
       <c r="M76" t="n">
-        <v>425.632075805664</v>
+        <v>425.6320770263672</v>
       </c>
     </row>
     <row r="77">
@@ -3432,7 +3432,7 @@
         <v>-0.004201014096985256</v>
       </c>
       <c r="J77" t="n">
-        <v>-0.02596858302662775</v>
+        <v>-0.0259685830266273</v>
       </c>
       <c r="K77" t="n">
         <v>20159175</v>
@@ -3441,7 +3441,7 @@
         <v>430.4497268676758</v>
       </c>
       <c r="M77" t="n">
-        <v>425.3556524658203</v>
+        <v>425.3556536865235</v>
       </c>
     </row>
     <row r="78">
@@ -3473,7 +3473,7 @@
         <v>-0.003643411280342623</v>
       </c>
       <c r="J78" t="n">
-        <v>-0.02951738007863669</v>
+        <v>-0.02951738007863625</v>
       </c>
       <c r="K78" t="n">
         <v>19964230</v>
@@ -3482,7 +3482,7 @@
         <v>428.7644866943359</v>
       </c>
       <c r="M78" t="n">
-        <v>425.0374822998047</v>
+        <v>425.0374835205078</v>
       </c>
     </row>
     <row r="79">
@@ -3514,7 +3514,7 @@
         <v>0.02559713987054701</v>
       </c>
       <c r="J79" t="n">
-        <v>-0.004675800714574629</v>
+        <v>-0.004675800714574185</v>
       </c>
       <c r="K79" t="n">
         <v>19937230</v>
@@ -3523,7 +3523,7 @@
         <v>427.7222137451172</v>
       </c>
       <c r="M79" t="n">
-        <v>425.4506463623047</v>
+        <v>425.4506475830078</v>
       </c>
     </row>
     <row r="80">
@@ -3555,7 +3555,7 @@
         <v>-0.004058091187746915</v>
       </c>
       <c r="J80" t="n">
-        <v>-0.008714917076646067</v>
+        <v>-0.008714917076645623</v>
       </c>
       <c r="K80" t="n">
         <v>19522290</v>
@@ -3564,7 +3564,7 @@
         <v>426.3790924072266</v>
       </c>
       <c r="M80" t="n">
-        <v>425.7495983886719</v>
+        <v>425.749599609375</v>
       </c>
     </row>
     <row r="81">
@@ -3596,7 +3596,7 @@
         <v>0.01048096621382433</v>
       </c>
       <c r="J81" t="n">
-        <v>0.001674708385741575</v>
+        <v>0.001674708385742019</v>
       </c>
       <c r="K81" t="n">
         <v>19695490</v>
@@ -3605,7 +3605,7 @@
         <v>425.1145416259766</v>
       </c>
       <c r="M81" t="n">
-        <v>426.1749798583984</v>
+        <v>426.1749810791015</v>
       </c>
     </row>
     <row r="82">
@@ -3637,7 +3637,7 @@
         <v>-0.00123526396463014</v>
       </c>
       <c r="J82" t="n">
-        <v>0.0004373757141913348</v>
+        <v>0.0004373757141917789</v>
       </c>
       <c r="K82" t="n">
         <v>19777550</v>
@@ -3646,7 +3646,7 @@
         <v>424.6724716186524</v>
       </c>
       <c r="M82" t="n">
-        <v>426.5302673339844</v>
+        <v>426.5302685546875</v>
       </c>
     </row>
     <row r="83">
@@ -3678,7 +3678,7 @@
         <v>0.04130688160628382</v>
       </c>
       <c r="J83" t="n">
-        <v>0.04176232394731882</v>
+        <v>0.04176232394731927</v>
       </c>
       <c r="K83" t="n">
         <v>20019555</v>
@@ -3687,7 +3687,7 @@
         <v>425.128466796875</v>
       </c>
       <c r="M83" t="n">
-        <v>427.0645202636719</v>
+        <v>427.0645208740235</v>
       </c>
     </row>
     <row r="84">
@@ -3719,7 +3719,7 @@
         <v>0.001142892117421024</v>
       </c>
       <c r="J84" t="n">
-        <v>0.0429529458955844</v>
+        <v>0.04295294589558485</v>
       </c>
       <c r="K84" t="n">
         <v>17725835</v>
@@ -3728,7 +3728,7 @@
         <v>425.631201171875</v>
       </c>
       <c r="M84" t="n">
-        <v>427.5046984863282</v>
+        <v>427.5046990966797</v>
       </c>
     </row>
     <row r="85">
@@ -3760,7 +3760,7 @@
         <v>-0.005932215439985122</v>
       </c>
       <c r="J85" t="n">
-        <v>0.03676592432676462</v>
+        <v>0.03676592432676506</v>
       </c>
       <c r="K85" t="n">
         <v>17545685</v>
@@ -3769,7 +3769,7 @@
         <v>426.0692932128906</v>
       </c>
       <c r="M85" t="n">
-        <v>427.9495361328125</v>
+        <v>427.9495367431641</v>
       </c>
     </row>
     <row r="86">
@@ -3801,7 +3801,7 @@
         <v>-0.02139344953877775</v>
       </c>
       <c r="J86" t="n">
-        <v>0.01458592484115573</v>
+        <v>0.01458592484115617</v>
       </c>
       <c r="K86" t="n">
         <v>18969850</v>
@@ -3810,7 +3810,7 @@
         <v>425.8320983886719</v>
       </c>
       <c r="M86" t="n">
-        <v>428.2953369140625</v>
+        <v>428.295337524414</v>
       </c>
     </row>
     <row r="87">
@@ -3842,7 +3842,7 @@
         <v>0.02908688804318937</v>
       </c>
       <c r="J87" t="n">
-        <v>0.04409707204720625</v>
+        <v>0.0440970720472067</v>
       </c>
       <c r="K87" t="n">
         <v>19734725</v>
@@ -3851,7 +3851,7 @@
         <v>426.2841156005859</v>
       </c>
       <c r="M87" t="n">
-        <v>428.7929046630859</v>
+        <v>428.7929052734375</v>
       </c>
     </row>
     <row r="88">
@@ -3883,7 +3883,7 @@
         <v>-0.01089004498424528</v>
       </c>
       <c r="J88" t="n">
-        <v>0.03272680796469341</v>
+        <v>0.03272680796469385</v>
       </c>
       <c r="K88" t="n">
         <v>20007910</v>
@@ -3892,7 +3892,7 @@
         <v>426.8708923339844</v>
       </c>
       <c r="M88" t="n">
-        <v>429.1505267333985</v>
+        <v>429.15052734375</v>
       </c>
     </row>
     <row r="89">
@@ -3924,7 +3924,7 @@
         <v>-0.06180903860268361</v>
       </c>
       <c r="J89" t="n">
-        <v>-0.03110504317482254</v>
+        <v>-0.0311050431748221</v>
       </c>
       <c r="K89" t="n">
         <v>22079290</v>
@@ -3933,7 +3933,7 @@
         <v>426.3815811157227</v>
       </c>
       <c r="M89" t="n">
-        <v>428.9307891845703</v>
+        <v>428.9307897949218</v>
       </c>
     </row>
     <row r="90">
@@ -3965,7 +3965,7 @@
         <v>0.0001686621321865811</v>
       </c>
       <c r="J90" t="n">
-        <v>-0.03094162728553962</v>
+        <v>-0.03094162728553917</v>
       </c>
       <c r="K90" t="n">
         <v>23125060</v>
@@ -3974,7 +3974,7 @@
         <v>426.0613403320312</v>
       </c>
       <c r="M90" t="n">
-        <v>428.948472290039</v>
+        <v>428.9484729003906</v>
       </c>
     </row>
     <row r="91">
@@ -4006,7 +4006,7 @@
         <v>-0.009974375959238113</v>
       </c>
       <c r="J91" t="n">
-        <v>-0.04060737982144114</v>
+        <v>-0.04060737982144069</v>
       </c>
       <c r="K91" t="n">
         <v>23564190</v>
@@ -4015,7 +4015,7 @@
         <v>425.6804351806641</v>
       </c>
       <c r="M91" t="n">
-        <v>428.8687213134766</v>
+        <v>428.8687219238281</v>
       </c>
     </row>
     <row r="92">
@@ -4047,7 +4047,7 @@
         <v>0.003528596582160759</v>
       </c>
       <c r="J92" t="n">
-        <v>-0.03722207030092883</v>
+        <v>-0.03722207030092839</v>
       </c>
       <c r="K92" t="n">
         <v>23757650</v>
@@ -4088,7 +4088,7 @@
         <v>0.002231094445473092</v>
       </c>
       <c r="J93" t="n">
-        <v>-0.03507402180975316</v>
+        <v>-0.03507402180975272</v>
       </c>
       <c r="K93" t="n">
         <v>23544805</v>
@@ -4129,7 +4129,7 @@
         <v>0.006121461503388659</v>
       </c>
       <c r="J94" t="n">
-        <v>-0.02916726458064189</v>
+        <v>-0.02916726458064145</v>
       </c>
       <c r="K94" t="n">
         <v>23453340</v>
@@ -4170,7 +4170,7 @@
         <v>-0.01459760505528429</v>
       </c>
       <c r="J95" t="n">
-        <v>-0.04333909742703501</v>
+        <v>-0.04333909742703457</v>
       </c>
       <c r="K95" t="n">
         <v>23844950</v>
@@ -4211,7 +4211,7 @@
         <v>0.006028092054758183</v>
       </c>
       <c r="J96" t="n">
-        <v>-0.03757225744113712</v>
+        <v>-0.03757225744113668</v>
       </c>
       <c r="K96" t="n">
         <v>23875790</v>
@@ -4252,7 +4252,7 @@
         <v>-0.001892166390944361</v>
       </c>
       <c r="J97" t="n">
-        <v>-0.03939333086931951</v>
+        <v>-0.03939333086931907</v>
       </c>
       <c r="K97" t="n">
         <v>23902580</v>
@@ -4293,7 +4293,7 @@
         <v>-0.005833213818602689</v>
       </c>
       <c r="J98" t="n">
-        <v>-0.04499675496593447</v>
+        <v>-0.04499675496593403</v>
       </c>
       <c r="K98" t="n">
         <v>24011870</v>
@@ -4334,7 +4334,7 @@
         <v>0.003667093642806707</v>
       </c>
       <c r="J99" t="n">
-        <v>-0.0414946686372103</v>
+        <v>-0.04149466863720985</v>
       </c>
       <c r="K99" t="n">
         <v>24224565</v>
@@ -4375,7 +4375,7 @@
         <v>-0.005139599514405235</v>
       </c>
       <c r="J100" t="n">
-        <v>-0.04642100217283729</v>
+        <v>-0.04642100217283684</v>
       </c>
       <c r="K100" t="n">
         <v>24597490</v>
@@ -4416,7 +4416,7 @@
         <v>0.002962669121909123</v>
       </c>
       <c r="J101" t="n">
-        <v>-0.04359586312067376</v>
+        <v>-0.04359586312067332</v>
       </c>
       <c r="K101" t="n">
         <v>24358770</v>
@@ -4457,7 +4457,7 @@
         <v>0.01252310065620055</v>
       </c>
       <c r="J102" t="n">
-        <v>-0.03161871784652737</v>
+        <v>-0.03161871784652692</v>
       </c>
       <c r="K102" t="n">
         <v>24260195</v>
@@ -4498,7 +4498,7 @@
         <v>0.005290706625309172</v>
       </c>
       <c r="J103" t="n">
-        <v>-0.02649529658121264</v>
+        <v>-0.02649529658121219</v>
       </c>
       <c r="K103" t="n">
         <v>24045440</v>
@@ -4539,7 +4539,7 @@
         <v>-0.01903259855834627</v>
       </c>
       <c r="J104" t="n">
-        <v>-0.04502362079604438</v>
+        <v>-0.04502362079604394</v>
       </c>
       <c r="K104" t="n">
         <v>24502215</v>
@@ -4580,7 +4580,7 @@
         <v>-0.01031328302000034</v>
       </c>
       <c r="J105" t="n">
-        <v>-0.05487256247218997</v>
+        <v>-0.05487256247218952</v>
       </c>
       <c r="K105" t="n">
         <v>25046925</v>
@@ -4621,7 +4621,7 @@
         <v>-0.01509900528534547</v>
       </c>
       <c r="J106" t="n">
-        <v>-0.06914304664674742</v>
+        <v>-0.06914304664674698</v>
       </c>
       <c r="K106" t="n">
         <v>24733905</v>
@@ -4662,7 +4662,7 @@
         <v>0.004599197961077106</v>
       </c>
       <c r="J107" t="n">
-        <v>-0.06486185124483068</v>
+        <v>-0.06486185124483024</v>
       </c>
       <c r="K107" t="n">
         <v>24540270</v>
@@ -4703,7 +4703,7 @@
         <v>-0.01801225214977242</v>
       </c>
       <c r="J108" t="n">
-        <v>-0.08170579537508016</v>
+        <v>-0.08170579537507972</v>
       </c>
       <c r="K108" t="n">
         <v>24417570</v>
@@ -4744,7 +4744,7 @@
         <v>0.01136218507712061</v>
       </c>
       <c r="J109" t="n">
-        <v>-0.07127196666688451</v>
+        <v>-0.07127196666688407</v>
       </c>
       <c r="K109" t="n">
         <v>23330540</v>
@@ -4785,7 +4785,7 @@
         <v>-0.02141109532909491</v>
       </c>
       <c r="J110" t="n">
-        <v>-0.09115705112338268</v>
+        <v>-0.09115705112338224</v>
       </c>
       <c r="K110" t="n">
         <v>22772830</v>
@@ -4826,7 +4826,7 @@
         <v>0.0003088478524668758</v>
       </c>
       <c r="J111" t="n">
-        <v>-0.09087635693039242</v>
+        <v>-0.09087635693039198</v>
       </c>
       <c r="K111" t="n">
         <v>22956020</v>
@@ -4867,7 +4867,7 @@
         <v>0.03193436984230447</v>
       </c>
       <c r="J112" t="n">
-        <v>-0.06184406628022443</v>
+        <v>-0.06184406628022387</v>
       </c>
       <c r="K112" t="n">
         <v>23101070</v>
@@ -4908,7 +4908,7 @@
         <v>-0.01029865102875782</v>
       </c>
       <c r="J113" t="n">
-        <v>-0.0715058068521629</v>
+        <v>-0.07150580685216235</v>
       </c>
       <c r="K113" t="n">
         <v>23450465</v>
@@ -4949,7 +4949,7 @@
         <v>-0.009020185329573605</v>
       </c>
       <c r="J114" t="n">
-        <v>-0.07988099655178926</v>
+        <v>-0.07988099655178871</v>
       </c>
       <c r="K114" t="n">
         <v>23736680</v>
@@ -4990,7 +4990,7 @@
         <v>-0.03343421121068091</v>
       </c>
       <c r="J115" t="n">
-        <v>-0.110644449652038</v>
+        <v>-0.1106444496520375</v>
       </c>
       <c r="K115" t="n">
         <v>24234345</v>
@@ -5031,7 +5031,7 @@
         <v>0.0007629382927840656</v>
       </c>
       <c r="J116" t="n">
-        <v>-0.1099659262467775</v>
+        <v>-0.1099659262467769</v>
       </c>
       <c r="K116" t="n">
         <v>24712460</v>
@@ -5072,7 +5072,7 @@
         <v>0.007412189930887214</v>
       </c>
       <c r="J117" t="n">
-        <v>-0.1033688246471574</v>
+        <v>-0.1033688246471568</v>
       </c>
       <c r="K117" t="n">
         <v>25018110</v>
@@ -5113,7 +5113,7 @@
         <v>-0.01174113210737204</v>
       </c>
       <c r="J118" t="n">
-        <v>-0.1138962897285634</v>
+        <v>-0.1138962897285628</v>
       </c>
       <c r="K118" t="n">
         <v>25085675</v>
@@ -5154,7 +5154,7 @@
         <v>0.02584687598082147</v>
       </c>
       <c r="J119" t="n">
-        <v>-0.09099327702303173</v>
+        <v>-0.09099327702303117</v>
       </c>
       <c r="K119" t="n">
         <v>24888730</v>
@@ -5195,7 +5195,7 @@
         <v>0.000360336389624738</v>
       </c>
       <c r="J120" t="n">
-        <v>-0.09066572882232959</v>
+        <v>-0.09066572882232904</v>
       </c>
       <c r="K120" t="n">
         <v>24874520</v>
@@ -5236,7 +5236,7 @@
         <v>-0.01332646220084022</v>
       </c>
       <c r="J121" t="n">
-        <v>-0.1027839376151074</v>
+        <v>-0.1027839376151068</v>
       </c>
       <c r="K121" t="n">
         <v>24777710</v>
@@ -5277,7 +5277,7 @@
         <v>0.0112119015293326</v>
       </c>
       <c r="J122" t="n">
-        <v>-0.09272443947311249</v>
+        <v>-0.09272443947311193</v>
       </c>
       <c r="K122" t="n">
         <v>24531275</v>
@@ -5318,7 +5318,7 @@
         <v>-0.002526930712145825</v>
       </c>
       <c r="J123" t="n">
-        <v>-0.09501706195138715</v>
+        <v>-0.09501706195138659</v>
       </c>
       <c r="K123" t="n">
         <v>24279365</v>
@@ -5359,7 +5359,7 @@
         <v>0.01142592146487886</v>
       </c>
       <c r="J124" t="n">
-        <v>-0.08467679797418837</v>
+        <v>-0.08467679797418781</v>
       </c>
       <c r="K124" t="n">
         <v>24886920</v>
@@ -5400,7 +5400,7 @@
         <v>0.004651577438902432</v>
       </c>
       <c r="J125" t="n">
-        <v>-0.08041910121834117</v>
+        <v>-0.08041910121834062</v>
       </c>
       <c r="K125" t="n">
         <v>24614960</v>
@@ -5441,7 +5441,7 @@
         <v>0.005291630611742537</v>
       </c>
       <c r="J126" t="n">
-        <v>-0.07555301878437448</v>
+        <v>-0.07555301878437393</v>
       </c>
       <c r="K126" t="n">
         <v>23934340</v>
@@ -5482,7 +5482,7 @@
         <v>-0.01313394498910891</v>
       </c>
       <c r="J127" t="n">
-        <v>-0.08769465458100834</v>
+        <v>-0.08769465458100778</v>
       </c>
       <c r="K127" t="n">
         <v>23758810</v>
@@ -5523,7 +5523,7 @@
         <v>0.001564135975072434</v>
       </c>
       <c r="J128" t="n">
-        <v>-0.0862676849699876</v>
+        <v>-0.08626768496998705</v>
       </c>
       <c r="K128" t="n">
         <v>23390780</v>
@@ -5564,7 +5564,7 @@
         <v>-0.03016025036645065</v>
       </c>
       <c r="J129" t="n">
-        <v>-0.1138260803592094</v>
+        <v>-0.1138260803592088</v>
       </c>
       <c r="K129" t="n">
         <v>22830095</v>
@@ -5605,7 +5605,7 @@
         <v>-0.009002025799393687</v>
       </c>
       <c r="J130" t="n">
-        <v>-0.1218034408465656</v>
+        <v>-0.121803440846565</v>
       </c>
       <c r="K130" t="n">
         <v>23438945</v>
@@ -5646,7 +5646,7 @@
         <v>0.0181144074018722</v>
       </c>
       <c r="J131" t="n">
-        <v>-0.105895430595138</v>
+        <v>-0.1058954305951374</v>
       </c>
       <c r="K131" t="n">
         <v>22956275</v>
@@ -5687,7 +5687,7 @@
         <v>-0.0001307678057353989</v>
       </c>
       <c r="J132" t="n">
-        <v>-0.106012350687777</v>
+        <v>-0.1060123506877765</v>
       </c>
       <c r="K132" t="n">
         <v>22589250</v>
@@ -5728,7 +5728,7 @@
         <v>-0.02363015630719834</v>
       </c>
       <c r="J133" t="n">
-        <v>-0.1271374185777296</v>
+        <v>-0.1271374185777291</v>
       </c>
       <c r="K133" t="n">
         <v>22933920</v>
@@ -5769,7 +5769,7 @@
         <v>-0.03556590459251285</v>
       </c>
       <c r="J134" t="n">
-        <v>-0.1581815658709685</v>
+        <v>-0.1581815658709681</v>
       </c>
       <c r="K134" t="n">
         <v>24292710</v>
@@ -5810,7 +5810,7 @@
         <v>-0.005502406616742839</v>
       </c>
       <c r="J135" t="n">
-        <v>-0.1628135931930162</v>
+        <v>-0.1628135931930158</v>
       </c>
       <c r="K135" t="n">
         <v>25171955</v>
@@ -5851,7 +5851,7 @@
         <v>-0.009221474734242618</v>
       </c>
       <c r="J136" t="n">
-        <v>-0.1705336864912382</v>
+        <v>-0.1705336864912378</v>
       </c>
       <c r="K136" t="n">
         <v>25446390</v>
@@ -5892,7 +5892,7 @@
         <v>0.1013368660410667</v>
       </c>
       <c r="J137" t="n">
-        <v>-0.08647816979362344</v>
+        <v>-0.08647816979362288</v>
       </c>
       <c r="K137" t="n">
         <v>26743695</v>
@@ -5933,7 +5933,7 @@
         <v>-0.02340648506917054</v>
       </c>
       <c r="J138" t="n">
-        <v>-0.1078605048727104</v>
+        <v>-0.1078605048727098</v>
       </c>
       <c r="K138" t="n">
         <v>27621265</v>
@@ -5974,7 +5974,7 @@
         <v>0.01861804023815861</v>
       </c>
       <c r="J139" t="n">
-        <v>-0.09125061585437999</v>
+        <v>-0.09125061585437944</v>
       </c>
       <c r="K139" t="n">
         <v>27815585</v>
@@ -6015,7 +6015,7 @@
         <v>-0.001647594648987227</v>
       </c>
       <c r="J140" t="n">
-        <v>-0.09274786647696875</v>
+        <v>-0.0927478664769682</v>
       </c>
       <c r="K140" t="n">
         <v>27654430</v>
@@ -6056,7 +6056,7 @@
         <v>-0.005363381324488325</v>
       </c>
       <c r="J141" t="n">
-        <v>-0.09761380562650834</v>
+        <v>-0.09761380562650779</v>
       </c>
       <c r="K141" t="n">
         <v>27540080</v>
@@ -6097,7 +6097,7 @@
         <v>-0.0366059680687103</v>
       </c>
       <c r="J142" t="n">
-        <v>-0.1306465258433894</v>
+        <v>-0.1306465258433889</v>
       </c>
       <c r="K142" t="n">
         <v>27679195</v>
@@ -6138,7 +6138,7 @@
         <v>-0.0103065155380615</v>
       </c>
       <c r="J143" t="n">
-        <v>-0.1396065309328522</v>
+        <v>-0.1396065309328517</v>
       </c>
       <c r="K143" t="n">
         <v>27811680</v>
@@ -6179,7 +6179,7 @@
         <v>-0.02354668619772804</v>
       </c>
       <c r="J144" t="n">
-        <v>-0.159865945955551</v>
+        <v>-0.1598659459555505</v>
       </c>
       <c r="K144" t="n">
         <v>26868250</v>
@@ -6220,7 +6220,7 @@
         <v>0.02144139553136482</v>
       </c>
       <c r="J145" t="n">
-        <v>-0.1418522994034149</v>
+        <v>-0.1418522994034144</v>
       </c>
       <c r="K145" t="n">
         <v>26792275</v>
@@ -6261,7 +6261,7 @@
         <v>0.02063683641028757</v>
       </c>
       <c r="J146" t="n">
-        <v>-0.1241428456903387</v>
+        <v>-0.1241428456903382</v>
       </c>
       <c r="K146" t="n">
         <v>27030800</v>
@@ -6302,7 +6302,7 @@
         <v>0.03448262041249417</v>
       </c>
       <c r="J147" t="n">
-        <v>-0.09394099590271132</v>
+        <v>-0.09394099590271077</v>
       </c>
       <c r="K147" t="n">
         <v>27336995</v>
@@ -6343,7 +6343,7 @@
         <v>0.0117480834781436</v>
       </c>
       <c r="J148" t="n">
-        <v>-0.08329653908645274</v>
+        <v>-0.08329653908645218</v>
       </c>
       <c r="K148" t="n">
         <v>27597315</v>
@@ -6384,7 +6384,7 @@
         <v>-0.001760842828736786</v>
       </c>
       <c r="J149" t="n">
-        <v>-0.08491070980168058</v>
+        <v>-0.08491070980168003</v>
       </c>
       <c r="K149" t="n">
         <v>27344685</v>
@@ -6425,7 +6425,7 @@
         <v>0.007362691718169723</v>
       </c>
       <c r="J150" t="n">
-        <v>-0.07817318946335161</v>
+        <v>-0.07817318946335106</v>
       </c>
       <c r="K150" t="n">
         <v>26334150</v>
@@ -6466,7 +6466,7 @@
         <v>0.00309611574955948</v>
       </c>
       <c r="J151" t="n">
-        <v>-0.07531910695688293</v>
+        <v>-0.07531910695688238</v>
       </c>
       <c r="K151" t="n">
         <v>27172730</v>
@@ -6507,7 +6507,7 @@
         <v>0.07625354383320349</v>
       </c>
       <c r="J152" t="n">
-        <v>-0.004808911947493888</v>
+        <v>-0.004808911947493222</v>
       </c>
       <c r="K152" t="n">
         <v>29315005</v>
@@ -6548,7 +6548,7 @@
         <v>0.02322525738912318</v>
       </c>
       <c r="J153" t="n">
-        <v>0.01830465722388719</v>
+        <v>0.01830465722388785</v>
       </c>
       <c r="K153" t="n">
         <v>29342975</v>
@@ -6589,7 +6589,7 @@
         <v>0.002044639585663255</v>
       </c>
       <c r="J154" t="n">
-        <v>0.02038672323631241</v>
+        <v>0.02038672323631308</v>
       </c>
       <c r="K154" t="n">
         <v>27889285</v>
@@ -6630,7 +6630,7 @@
         <v>-0.006557060985279972</v>
       </c>
       <c r="J155" t="n">
-        <v>0.01369598526348192</v>
+        <v>0.01369598526348259</v>
       </c>
       <c r="K155" t="n">
         <v>26123245</v>
@@ -6671,7 +6671,7 @@
         <v>9.230058356446413e-05</v>
       </c>
       <c r="J156" t="n">
-        <v>0.01378954999447868</v>
+        <v>0.01378954999447934</v>
       </c>
       <c r="K156" t="n">
         <v>25494565</v>
@@ -6712,7 +6712,7 @@
         <v>0.01112267784931786</v>
       </c>
       <c r="J157" t="n">
-        <v>0.02506560456607221</v>
+        <v>0.02506560456607287</v>
       </c>
       <c r="K157" t="n">
         <v>24159145</v>
@@ -6753,7 +6753,7 @@
         <v>0.0012780152924321</v>
       </c>
       <c r="J158" t="n">
-        <v>0.02637565408445375</v>
+        <v>0.02637565408445441</v>
       </c>
       <c r="K158" t="n">
         <v>23024135</v>
@@ -6794,7 +6794,7 @@
         <v>0.02400112966201084</v>
       </c>
       <c r="J159" t="n">
-        <v>0.05100982924006581</v>
+        <v>0.0510098292400667</v>
       </c>
       <c r="K159" t="n">
         <v>22973270</v>
@@ -6835,7 +6835,7 @@
         <v>-0.0002670709494630996</v>
       </c>
       <c r="J160" t="n">
-        <v>0.05072913504707555</v>
+        <v>0.05072913504707643</v>
       </c>
       <c r="K160" t="n">
         <v>23191650</v>
@@ -6876,7 +6876,7 @@
         <v>0.008460528771286668</v>
       </c>
       <c r="J161" t="n">
-        <v>0.05961885912497045</v>
+        <v>0.05961885912497134</v>
       </c>
       <c r="K161" t="n">
         <v>23326795</v>
@@ -6917,7 +6917,7 @@
         <v>0.002256121628950947</v>
       </c>
       <c r="J162" t="n">
-        <v>0.06200948815148655</v>
+        <v>0.06200948815148744</v>
       </c>
       <c r="K162" t="n">
         <v>23328020</v>
@@ -6958,7 +6958,7 @@
         <v>0.002515820004256764</v>
       </c>
       <c r="J163" t="n">
-        <v>0.06468131286648848</v>
+        <v>0.06468131286648937</v>
       </c>
       <c r="K163" t="n">
         <v>23464500</v>
@@ -6999,7 +6999,7 @@
         <v>0.01012610852407914</v>
       </c>
       <c r="J164" t="n">
-        <v>0.07546239138413369</v>
+        <v>0.07546239138413458</v>
       </c>
       <c r="K164" t="n">
         <v>23490960</v>
@@ -7040,7 +7040,7 @@
         <v>-0.00152542298362579</v>
       </c>
       <c r="J165" t="n">
-        <v>0.07382185633429117</v>
+        <v>0.07382185633429206</v>
       </c>
       <c r="K165" t="n">
         <v>23288800</v>
@@ -7081,7 +7081,7 @@
         <v>-0.0122225613671656</v>
       </c>
       <c r="J166" t="n">
-        <v>0.06069700279784151</v>
+        <v>0.0606970027978424</v>
       </c>
       <c r="K166" t="n">
         <v>23222370</v>
@@ -7122,7 +7122,7 @@
         <v>0.005059952483793984</v>
       </c>
       <c r="J167" t="n">
-        <v>0.06606407923170132</v>
+        <v>0.06606407923170221</v>
       </c>
       <c r="K167" t="n">
         <v>23012035</v>
@@ -7163,7 +7163,7 @@
         <v>-0.01028884323596357</v>
       </c>
       <c r="J168" t="n">
-        <v>0.05509551304099447</v>
+        <v>0.05509551304099536</v>
       </c>
       <c r="K168" t="n">
         <v>22907550</v>
@@ -7204,7 +7204,7 @@
         <v>0.02334618566568403</v>
       </c>
       <c r="J169" t="n">
-        <v>0.07972796878347976</v>
+        <v>0.07972796878348065</v>
       </c>
       <c r="K169" t="n">
         <v>23127295</v>
@@ -7245,7 +7245,7 @@
         <v>-0.007228264612688884</v>
       </c>
       <c r="J170" t="n">
-        <v>0.07192340931539176</v>
+        <v>0.07192340931539265</v>
       </c>
       <c r="K170" t="n">
         <v>23232910</v>
@@ -7286,7 +7286,7 @@
         <v>0.002886144368305699</v>
       </c>
       <c r="J171" t="n">
-        <v>0.07501713502644236</v>
+        <v>0.07501713502644325</v>
       </c>
       <c r="K171" t="n">
         <v>22108595</v>
@@ -7327,7 +7327,7 @@
         <v>0.003662624799579905</v>
       </c>
       <c r="J172" t="n">
-        <v>0.07895451944516352</v>
+        <v>0.07895451944516441</v>
       </c>
       <c r="K172" t="n">
         <v>20900215</v>
@@ -7368,7 +7368,7 @@
         <v>0.003497336510424276</v>
       </c>
       <c r="J173" t="n">
-        <v>0.0827279864791064</v>
+        <v>0.08272798647910728</v>
       </c>
       <c r="K173" t="n">
         <v>20193670</v>
@@ -7409,7 +7409,7 @@
         <v>0.002164628056038342</v>
       </c>
       <c r="J174" t="n">
-        <v>0.08507168985569691</v>
+        <v>0.0850716898556978</v>
       </c>
       <c r="K174" t="n">
         <v>19974055</v>
@@ -7450,7 +7450,7 @@
         <v>0.001943917690713892</v>
       </c>
       <c r="J175" t="n">
-        <v>0.08718097990930018</v>
+        <v>0.08718097990930107</v>
       </c>
       <c r="K175" t="n">
         <v>19926980</v>
@@ -7491,7 +7491,7 @@
         <v>0.008213496477298854</v>
       </c>
       <c r="J176" t="n">
-        <v>0.09611053705797157</v>
+        <v>0.09611053705797246</v>
       </c>
       <c r="K176" t="n">
         <v>19768800</v>
@@ -7532,7 +7532,7 @@
         <v>0.005773218004487157</v>
       </c>
       <c r="J177" t="n">
-        <v>0.1024386221454228</v>
+        <v>0.1024386221454237</v>
       </c>
       <c r="K177" t="n">
         <v>19358515</v>
@@ -7573,7 +7573,7 @@
         <v>0.005038498867470098</v>
       </c>
       <c r="J178" t="n">
-        <v>0.1079932578945577</v>
+        <v>0.1079932578945586</v>
       </c>
       <c r="K178" t="n">
         <v>19415800</v>
@@ -7614,7 +7614,7 @@
         <v>-0.003870966156736544</v>
       </c>
       <c r="J179" t="n">
-        <v>0.1037042534913557</v>
+        <v>0.1037042534913566</v>
       </c>
       <c r="K179" t="n">
         <v>19043500</v>
@@ -7655,7 +7655,7 @@
         <v>0.003609943565989981</v>
       </c>
       <c r="J180" t="n">
-        <v>0.1076885635600027</v>
+        <v>0.1076885635600036</v>
       </c>
       <c r="K180" t="n">
         <v>18682520</v>
@@ -7696,7 +7696,7 @@
         <v>0.01322416250280134</v>
       </c>
       <c r="J181" t="n">
-        <v>0.1223368171270147</v>
+        <v>0.1223368171270156</v>
       </c>
       <c r="K181" t="n">
         <v>18634910</v>
@@ -7737,7 +7737,7 @@
         <v>-0.008165080510427192</v>
       </c>
       <c r="J182" t="n">
-        <v>0.1131728466553561</v>
+        <v>0.113172846655357</v>
       </c>
       <c r="K182" t="n">
         <v>18376020</v>
@@ -7778,7 +7778,7 @@
         <v>0.008800777142615956</v>
       </c>
       <c r="J183" t="n">
-        <v>0.1229696327999812</v>
+        <v>0.1229696327999823</v>
       </c>
       <c r="K183" t="n">
         <v>17964835</v>
@@ -7819,7 +7819,7 @@
         <v>-0.002295802686266502</v>
       </c>
       <c r="J184" t="n">
-        <v>0.1203915161004032</v>
+        <v>0.1203915161004043</v>
       </c>
       <c r="K184" t="n">
         <v>17668715</v>
@@ -7860,7 +7860,7 @@
         <v>0.004602107105280862</v>
       </c>
       <c r="J185" t="n">
-        <v>0.1255476778573452</v>
+        <v>0.1255476778573463</v>
       </c>
       <c r="K185" t="n">
         <v>17772950</v>
@@ -7901,7 +7901,7 @@
         <v>-0.005913685323681417</v>
       </c>
       <c r="J186" t="n">
-        <v>0.1188915430736965</v>
+        <v>0.1188915430736976</v>
       </c>
       <c r="K186" t="n">
         <v>18690915</v>
@@ -7942,7 +7942,7 @@
         <v>0.01801422469496128</v>
       </c>
       <c r="J187" t="n">
-        <v>0.1390475067399179</v>
+        <v>0.1390475067399193</v>
       </c>
       <c r="K187" t="n">
         <v>19032835</v>
@@ -7983,7 +7983,7 @@
         <v>0.008456762142235563</v>
       </c>
       <c r="J188" t="n">
-        <v>0.1486801605731238</v>
+        <v>0.1486801605731252</v>
       </c>
       <c r="K188" t="n">
         <v>19303940</v>
@@ -8024,7 +8024,7 @@
         <v>0.004407191762580975</v>
       </c>
       <c r="J189" t="n">
-        <v>0.1537426143146419</v>
+        <v>0.1537426143146432</v>
       </c>
       <c r="K189" t="n">
         <v>19129980</v>
@@ -8065,7 +8065,7 @@
         <v>0.0105227018319225</v>
       </c>
       <c r="J190" t="n">
-        <v>0.1658831038358577</v>
+        <v>0.165883103835859</v>
       </c>
       <c r="K190" t="n">
         <v>19354610</v>
@@ -8106,7 +8106,7 @@
         <v>-0.003035451888013796</v>
       </c>
       <c r="J191" t="n">
-        <v>0.1623441217671158</v>
+        <v>0.1623441217671171</v>
       </c>
       <c r="K191" t="n">
         <v>20382830</v>
@@ -8147,7 +8147,7 @@
         <v>0.002964074054145005</v>
       </c>
       <c r="J192" t="n">
-        <v>0.1657893958204337</v>
+        <v>0.1657893958204351</v>
       </c>
       <c r="K192" t="n">
         <v>20062755</v>
@@ -8188,7 +8188,7 @@
         <v>-0.01077586617471649</v>
       </c>
       <c r="J193" t="n">
-        <v>0.1532270053031692</v>
+        <v>0.1532270053031706</v>
       </c>
       <c r="K193" t="n">
         <v>20228700</v>
@@ -8229,7 +8229,7 @@
         <v>-0.001950980777077449</v>
       </c>
       <c r="J194" t="n">
-        <v>0.1509770815842162</v>
+        <v>0.1509770815842175</v>
       </c>
       <c r="K194" t="n">
         <v>20257490</v>
@@ -8270,7 +8270,7 @@
         <v>0.01578120791675297</v>
       </c>
       <c r="J195" t="n">
-        <v>0.1691408902161142</v>
+        <v>0.1691408902161156</v>
       </c>
       <c r="K195" t="n">
         <v>20248595</v>
@@ -8311,7 +8311,7 @@
         <v>-0.002245213326517614</v>
       </c>
       <c r="J196" t="n">
-        <v>0.1665159195088244</v>
+        <v>0.1665159195088257</v>
       </c>
       <c r="K196" t="n">
         <v>19941090</v>
@@ -8352,7 +8352,7 @@
         <v>-0.002210099885017858</v>
       </c>
       <c r="J197" t="n">
-        <v>0.1639378028092464</v>
+        <v>0.1639378028092477</v>
       </c>
       <c r="K197" t="n">
         <v>19769140</v>
@@ -8393,7 +8393,7 @@
         <v>0.01387384978557882</v>
       </c>
       <c r="J198" t="n">
-        <v>0.1800861010451786</v>
+        <v>0.18008610104518</v>
       </c>
       <c r="K198" t="n">
         <v>19878620</v>
@@ -8434,7 +8434,7 @@
         <v>-0.004031705316035028</v>
       </c>
       <c r="J199" t="n">
-        <v>0.1753283416382156</v>
+        <v>0.175328341638217</v>
       </c>
       <c r="K199" t="n">
         <v>19934430</v>
@@ -8475,7 +8475,7 @@
         <v>0.003669129088682777</v>
       </c>
       <c r="J200" t="n">
-        <v>0.1796407730452738</v>
+        <v>0.1796407730452751</v>
       </c>
       <c r="K200" t="n">
         <v>19937445</v>
@@ -8516,7 +8516,7 @@
         <v>-0.000596086828139053</v>
       </c>
       <c r="J201" t="n">
-        <v>0.1789376047185258</v>
+        <v>0.1789376047185272</v>
       </c>
       <c r="K201" t="n">
         <v>19592855</v>
@@ -8557,7 +8557,7 @@
         <v>0.00556639023300276</v>
       </c>
       <c r="J202" t="n">
-        <v>0.1855000314867508</v>
+        <v>0.1855000314867521</v>
       </c>
       <c r="K202" t="n">
         <v>19498490</v>
@@ -8598,7 +8598,7 @@
         <v>-0.0003954069939356986</v>
       </c>
       <c r="J203" t="n">
-        <v>0.18503127648299</v>
+        <v>0.1850312764829913</v>
       </c>
       <c r="K203" t="n">
         <v>19474905</v>
@@ -8639,7 +8639,7 @@
         <v>0.01202487352006809</v>
       </c>
       <c r="J204" t="n">
-        <v>0.1992811277000228</v>
+        <v>0.1992811277000242</v>
       </c>
       <c r="K204" t="n">
         <v>19579355</v>
@@ -8680,7 +8680,7 @@
         <v>-0.003224577590729916</v>
       </c>
       <c r="J205" t="n">
-        <v>0.195413952650656</v>
+        <v>0.1954139526506573</v>
       </c>
       <c r="K205" t="n">
         <v>19763515</v>
@@ -8721,7 +8721,7 @@
         <v>1.959739871204569e-05</v>
       </c>
       <c r="J206" t="n">
-        <v>0.1954373796545119</v>
+        <v>0.1954373796545132</v>
       </c>
       <c r="K206" t="n">
         <v>18588045</v>
@@ -8762,7 +8762,7 @@
         <v>-0.009391045243034468</v>
       </c>
       <c r="J207" t="n">
-        <v>0.1842109731369619</v>
+        <v>0.1842109731369632</v>
       </c>
       <c r="K207" t="n">
         <v>18038275</v>
@@ -8803,7 +8803,7 @@
         <v>0.001187512228127297</v>
       </c>
       <c r="J208" t="n">
-        <v>0.1856172381482446</v>
+        <v>0.1856172381482459</v>
       </c>
       <c r="K208" t="n">
         <v>17742825</v>
@@ -8844,7 +8844,7 @@
         <v>0.009903715255829226</v>
       </c>
       <c r="J209" t="n">
-        <v>0.1973592536772675</v>
+        <v>0.1973592536772688</v>
       </c>
       <c r="K209" t="n">
         <v>17673420</v>
@@ -8885,7 +8885,7 @@
         <v>0.005539566378135463</v>
       </c>
       <c r="J210" t="n">
-        <v>0.2039921047414874</v>
+        <v>0.2039921047414888</v>
       </c>
       <c r="K210" t="n">
         <v>17550760</v>
@@ -8926,7 +8926,7 @@
         <v>-0.00235552098511782</v>
       </c>
       <c r="J211" t="n">
-        <v>0.2011560760728528</v>
+        <v>0.2011560760728539</v>
       </c>
       <c r="K211" t="n">
         <v>16539200</v>
@@ -8967,7 +8967,7 @@
         <v>0.000136585638181197</v>
       </c>
       <c r="J212" t="n">
-        <v>0.2013201367420585</v>
+        <v>0.2013201367420596</v>
       </c>
       <c r="K212" t="n">
         <v>15944210</v>
@@ -9008,7 +9008,7 @@
         <v>0.001307107065176671</v>
       </c>
       <c r="J213" t="n">
-        <v>0.202890390780333</v>
+        <v>0.2028903907803341</v>
       </c>
       <c r="K213" t="n">
         <v>16265960</v>
@@ -9049,7 +9049,7 @@
         <v>0.03947470453976676</v>
       </c>
       <c r="J214" t="n">
-        <v>0.2503741335501113</v>
+        <v>0.2503741335501124</v>
       </c>
       <c r="K214" t="n">
         <v>18030845</v>
@@ -9090,7 +9090,7 @@
         <v>-0.01760072001226609</v>
       </c>
       <c r="J215" t="n">
-        <v>0.2283666485149161</v>
+        <v>0.2283666485149172</v>
       </c>
       <c r="K215" t="n">
         <v>18780485</v>
@@ -9131,7 +9131,7 @@
         <v>0.02199925929598123</v>
       </c>
       <c r="J216" t="n">
-        <v>0.2553898049261312</v>
+        <v>0.2553898049261323</v>
       </c>
       <c r="K216" t="n">
         <v>19348855</v>
@@ -9172,7 +9172,7 @@
         <v>-0.0147300874516908</v>
       </c>
       <c r="J217" t="n">
-        <v>0.2368978033136082</v>
+        <v>0.2368978033136093</v>
       </c>
       <c r="K217" t="n">
         <v>19715105</v>
@@ -9213,7 +9213,7 @@
         <v>-0.005324435141063399</v>
       </c>
       <c r="J218" t="n">
-        <v>0.2303120211837411</v>
+        <v>0.2303120211837422</v>
       </c>
       <c r="K218" t="n">
         <v>19849915</v>
@@ -9254,7 +9254,7 @@
         <v>-0.007810398227357296</v>
       </c>
       <c r="J219" t="n">
-        <v>0.2207027943543911</v>
+        <v>0.2207027943543922</v>
       </c>
       <c r="K219" t="n">
         <v>19829265</v>
@@ -9295,7 +9295,7 @@
         <v>0.002303907839930286</v>
       </c>
       <c r="J220" t="n">
-        <v>0.2235151810925291</v>
+        <v>0.2235151810925302</v>
       </c>
       <c r="K220" t="n">
         <v>19782840</v>
@@ -9336,7 +9336,7 @@
         <v>-0.0005171525785138131</v>
       </c>
       <c r="J221" t="n">
-        <v>0.2228824370617764</v>
+        <v>0.2228824370617775</v>
       </c>
       <c r="K221" t="n">
         <v>20189620</v>
@@ -9377,7 +9377,7 @@
         <v>0.01431658005893621</v>
       </c>
       <c r="J222" t="n">
-        <v>0.2403899313746383</v>
+        <v>0.2403899313746394</v>
       </c>
       <c r="K222" t="n">
         <v>20376610</v>
@@ -9418,7 +9418,7 @@
         <v>-0.01636302035027348</v>
       </c>
       <c r="J223" t="n">
-        <v>0.2200934056852808</v>
+        <v>0.2200934056852819</v>
       </c>
       <c r="K223" t="n">
         <v>20599850</v>
@@ -9459,7 +9459,7 @@
         <v>0.003649715185283675</v>
       </c>
       <c r="J224" t="n">
-        <v>0.2245463991154748</v>
+        <v>0.2245463991154759</v>
       </c>
       <c r="K224" t="n">
         <v>20738150</v>
@@ -9500,7 +9500,7 @@
         <v>-0.004421230659529152</v>
       </c>
       <c r="J225" t="n">
-        <v>0.2191323970316894</v>
+        <v>0.2191323970316905</v>
       </c>
       <c r="K225" t="n">
         <v>20938330</v>
@@ -9541,7 +9541,7 @@
         <v>-0.005901995633061485</v>
       </c>
       <c r="J226" t="n">
-        <v>0.2119370829482845</v>
+        <v>0.2119370829482856</v>
       </c>
       <c r="K226" t="n">
         <v>21423020</v>
@@ -9582,7 +9582,7 @@
         <v>-0.01417513600017783</v>
       </c>
       <c r="J227" t="n">
-        <v>0.1947577099738338</v>
+        <v>0.1947577099738349</v>
       </c>
       <c r="K227" t="n">
         <v>21803640</v>
@@ -9623,7 +9623,7 @@
         <v>-0.007944723929058539</v>
       </c>
       <c r="J228" t="n">
-        <v>0.1852656898059775</v>
+        <v>0.1852656898059786</v>
       </c>
       <c r="K228" t="n">
         <v>22369960</v>
@@ -9664,7 +9664,7 @@
         <v>-0.001287457456482177</v>
       </c>
       <c r="J229" t="n">
-        <v>0.1837397106557244</v>
+        <v>0.1837397106557255</v>
       </c>
       <c r="K229" t="n">
         <v>22486775</v>
@@ -9705,7 +9705,7 @@
         <v>0.005929757278004377</v>
       </c>
       <c r="J230" t="n">
-        <v>0.1907589998202479</v>
+        <v>0.190758999820249</v>
       </c>
       <c r="K230" t="n">
         <v>22746700</v>
@@ -9746,7 +9746,7 @@
         <v>-0.005855334180498994</v>
       </c>
       <c r="J231" t="n">
-        <v>0.1837867079478637</v>
+        <v>0.1837867079478648</v>
       </c>
       <c r="K231" t="n">
         <v>23113230</v>
@@ -9787,7 +9787,7 @@
         <v>-0.004402493114088024</v>
       </c>
       <c r="J232" t="n">
-        <v>0.1785750951175742</v>
+        <v>0.1785750951175753</v>
       </c>
       <c r="K232" t="n">
         <v>23831555</v>
@@ -9828,7 +9828,7 @@
         <v>0.009361767208703631</v>
       </c>
       <c r="J233" t="n">
-        <v>0.1896086407960407</v>
+        <v>0.1896086407960418</v>
       </c>
       <c r="K233" t="n">
         <v>23376430</v>
@@ -9869,7 +9869,7 @@
         <v>0.005722904191400424</v>
       </c>
       <c r="J234" t="n">
-        <v>0.1964166570725785</v>
+        <v>0.1964166570725796</v>
       </c>
       <c r="K234" t="n">
         <v>21696345</v>
@@ -9910,7 +9910,7 @@
         <v>-0.005788423440546087</v>
       </c>
       <c r="J235" t="n">
-        <v>0.1894912908501198</v>
+        <v>0.189491290850121</v>
       </c>
       <c r="K235" t="n">
         <v>21295545</v>
@@ -9951,7 +9951,7 @@
         <v>-0.003098555954634818</v>
       </c>
       <c r="J236" t="n">
-        <v>0.18580558552787</v>
+        <v>0.1858055855278711</v>
       </c>
       <c r="K236" t="n">
         <v>20934495</v>
@@ -9992,7 +9992,7 @@
         <v>0.0004553590999198942</v>
       </c>
       <c r="J237" t="n">
-        <v>0.186345552891976</v>
+        <v>0.1863455528919771</v>
       </c>
       <c r="K237" t="n">
         <v>20793170</v>
@@ -10033,7 +10033,7 @@
         <v>0.005184515851476723</v>
       </c>
       <c r="J238" t="n">
-        <v>0.1924961802162732</v>
+        <v>0.1924961802162743</v>
       </c>
       <c r="K238" t="n">
         <v>20500860</v>
@@ -10074,7 +10074,7 @@
         <v>-0.02553300625929666</v>
       </c>
       <c r="J239" t="n">
-        <v>0.1620481677826238</v>
+        <v>0.1620481677826249</v>
       </c>
       <c r="K239" t="n">
         <v>21296645</v>
@@ -10115,7 +10115,7 @@
         <v>0.006464671125315569</v>
       </c>
       <c r="J240" t="n">
-        <v>0.169560427019114</v>
+        <v>0.1695604270191151</v>
       </c>
       <c r="K240" t="n">
         <v>21358645</v>
@@ -10156,7 +10156,7 @@
         <v>0.0004215003009491181</v>
       </c>
       <c r="J241" t="n">
-        <v>0.1700533970910807</v>
+        <v>0.1700533970910818</v>
       </c>
       <c r="K241" t="n">
         <v>21069450</v>
@@ -10197,7 +10197,7 @@
         <v>0.003932488193810091</v>
       </c>
       <c r="J242" t="n">
-        <v>0.1746546182612687</v>
+        <v>0.1746546182612698</v>
       </c>
       <c r="K242" t="n">
         <v>21216690</v>
@@ -10238,7 +10238,7 @@
         <v>0.001279082788102848</v>
       </c>
       <c r="J243" t="n">
-        <v>0.1761570987654522</v>
+        <v>0.1761570987654533</v>
       </c>
       <c r="K243" t="n">
         <v>21179810</v>
@@ -10279,7 +10279,7 @@
         <v>0.01774412478309206</v>
       </c>
       <c r="J244" t="n">
-        <v>0.1970269770904658</v>
+        <v>0.1970269770904669</v>
       </c>
       <c r="K244" t="n">
         <v>21347600</v>
@@ -10320,7 +10320,7 @@
         <v>0.01070796532738649</v>
       </c>
       <c r="J245" t="n">
-        <v>0.2098447004570967</v>
+        <v>0.2098447004570978</v>
       </c>
       <c r="K245" t="n">
         <v>20944125</v>
@@ -10361,7 +10361,7 @@
         <v>-0.01226322762006704</v>
       </c>
       <c r="J246" t="n">
-        <v>0.1950080995104595</v>
+        <v>0.1950080995104606</v>
       </c>
       <c r="K246" t="n">
         <v>20741690</v>
@@ -10402,7 +10402,7 @@
         <v>0.001925154118143313</v>
       </c>
       <c r="J247" t="n">
-        <v>0.1973086742744468</v>
+        <v>0.1973086742744479</v>
       </c>
       <c r="K247" t="n">
         <v>20458470</v>
@@ -10443,7 +10443,7 @@
         <v>-0.003078265245401113</v>
       </c>
       <c r="J248" t="n">
-        <v>0.1936230405944104</v>
+        <v>0.1936230405944115</v>
       </c>
       <c r="K248" t="n">
         <v>20018005</v>
@@ -10484,7 +10484,7 @@
         <v>0.01864486230927631</v>
       </c>
       <c r="J249" t="n">
-        <v>0.2158779778354729</v>
+        <v>0.215877977835474</v>
       </c>
       <c r="K249" t="n">
         <v>21719545</v>
@@ -10525,7 +10525,7 @@
         <v>-0.006719017083315459</v>
       </c>
       <c r="J250" t="n">
-        <v>0.2077084729311693</v>
+        <v>0.2077084729311705</v>
       </c>
       <c r="K250" t="n">
         <v>21503800</v>
@@ -10545,7 +10545,7 @@
         <v>513.7999877929688</v>
       </c>
       <c r="C251" t="n">
-        <v>514.5599975585938</v>
+        <v>514.5900268554688</v>
       </c>
       <c r="D251" t="n">
         <v>507.3099975585938</v>
@@ -10554,7 +10554,7 @@
         <v>509.2300109863281</v>
       </c>
       <c r="F251" t="n">
-        <v>18977351</v>
+        <v>19788300</v>
       </c>
       <c r="G251" t="n">
         <v>0</v>
@@ -10566,10 +10566,10 @@
         <v>-0.01014676080637822</v>
       </c>
       <c r="J251" t="n">
-        <v>0.1954541439325004</v>
+        <v>0.1954541439325015</v>
       </c>
       <c r="K251" t="n">
-        <v>21370737.55</v>
+        <v>21411285</v>
       </c>
       <c r="L251" t="n">
         <v>506.5460021972656</v>
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18977351</v>
+        <v>19788300</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>45923</v>
